--- a/design/1.配置表/info_store_item.xlsx
+++ b/design/1.配置表/info_store_item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigciba\Documents\Dota Addons\GuardingAthena\design\1.配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106ED3C-758B-40E6-80EC-5AB65D288480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEBBBAF-6335-4D4D-9FF5-929512F91211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="263">
   <si>
     <t>ItemName</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Purchaseable</t>
   </si>
   <si>
-    <t>Hero</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -764,6 +761,66 @@
   </si>
   <si>
     <t>itemid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle_2</t>
+  </si>
+  <si>
+    <t>particle_3</t>
+  </si>
+  <si>
+    <t>particle_4</t>
+  </si>
+  <si>
+    <t>particle_5</t>
+  </si>
+  <si>
+    <t>天龙人之壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/particle/particle_1/particle_1.vpcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧玉圣物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心泛滥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起摇摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/particle/particle_5/particle_5.vpcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/particle/particle_4/particle_4.vpcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/particle/particle_3/particle_3.vpcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/particle/particle_2/particle_2.vpcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青莲圣物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -786,6 +843,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -808,9 +871,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1146,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1163,14 +1227,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1178,28 +1242,28 @@
         <v>101001</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1207,28 +1271,28 @@
         <v>101002</v>
       </c>
       <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>232</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>233</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1236,28 +1300,28 @@
         <v>101003</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>236</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1265,28 +1329,28 @@
         <v>102001</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1294,28 +1358,28 @@
         <v>102002</v>
       </c>
       <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>217</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>218</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1323,28 +1387,28 @@
         <v>102003</v>
       </c>
       <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>223</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>224</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1352,28 +1416,28 @@
         <v>102004</v>
       </c>
       <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>226</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>227</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1381,28 +1445,28 @@
         <v>102005</v>
       </c>
       <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>229</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>230</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1410,28 +1474,28 @@
         <v>102006</v>
       </c>
       <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>241</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>242</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1439,2422 +1503,2567 @@
         <v>103001</v>
       </c>
       <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>244</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>245</v>
       </c>
-      <c r="I11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12">
-        <v>104001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>220</v>
+        <v>103002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13">
-        <v>105001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
+        <v>103003</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="H13" t="s">
-        <v>239</v>
-      </c>
-      <c r="I13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14">
-        <v>106001</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
+        <v>103004</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
       <c r="A15">
-        <v>106002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
+        <v>103005</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
       <c r="A16">
-        <v>106003</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+        <v>103006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
+        <v>244</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>106004</v>
+        <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>106005</v>
+        <v>105001</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>106006</v>
+        <v>106001</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
         <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>106007</v>
+        <v>106002</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>106008</v>
+        <v>106003</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>106009</v>
+        <v>106004</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>106010</v>
+        <v>106005</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>106011</v>
+        <v>106006</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>106012</v>
+        <v>106007</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>106013</v>
+        <v>106008</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>106014</v>
+        <v>106009</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>106015</v>
+        <v>106010</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>106016</v>
+        <v>106011</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>106017</v>
+        <v>106012</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>106018</v>
+        <v>106013</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>106019</v>
+        <v>106014</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>106020</v>
+        <v>106015</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>106021</v>
+        <v>106016</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>106022</v>
+        <v>106017</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>106023</v>
+        <v>106018</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>106024</v>
+        <v>106019</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>106025</v>
+        <v>106020</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>106026</v>
+        <v>106021</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>106027</v>
+        <v>106022</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>106028</v>
+        <v>106023</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>106029</v>
+        <v>106024</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
-        <v>53</v>
-      </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>106030</v>
+        <v>106025</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>106031</v>
+        <v>106026</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>106032</v>
+        <v>106027</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>106033</v>
+        <v>106028</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>106034</v>
+        <v>106029</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>106035</v>
+        <v>106030</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>106036</v>
+        <v>106031</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>106037</v>
+        <v>106032</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>106038</v>
+        <v>106033</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" t="s">
-        <v>53</v>
-      </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>106039</v>
+        <v>106034</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>106040</v>
+        <v>106035</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>53</v>
-      </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>106041</v>
+        <v>106036</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>106042</v>
+        <v>106037</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>106043</v>
+        <v>106038</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
-        <v>53</v>
-      </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>106044</v>
+        <v>106039</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>106045</v>
+        <v>106040</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>106046</v>
+        <v>106041</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D59" t="s">
-        <v>53</v>
-      </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>106047</v>
+        <v>106042</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" t="s">
-        <v>53</v>
-      </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>106048</v>
+        <v>106043</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>106049</v>
+        <v>106044</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>106050</v>
+        <v>106045</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>106051</v>
+        <v>106046</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
         <v>52</v>
       </c>
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>106052</v>
+        <v>106047</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" t="s">
-        <v>53</v>
-      </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>106053</v>
+        <v>106048</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="D66" t="s">
-        <v>53</v>
-      </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>106054</v>
+        <v>106049</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
         <v>52</v>
       </c>
-      <c r="D67" t="s">
-        <v>53</v>
-      </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>106055</v>
+        <v>106050</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
         <v>52</v>
       </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>106056</v>
+        <v>106051</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>106057</v>
+        <v>106052</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
         <v>52</v>
       </c>
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>106058</v>
+        <v>106053</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
         <v>52</v>
       </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>106059</v>
+        <v>106054</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>106060</v>
+        <v>106055</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>106061</v>
+        <v>106056</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>106062</v>
+        <v>106057</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>106063</v>
+        <v>106058</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>106064</v>
+        <v>106059</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>106065</v>
+        <v>106060</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>106066</v>
+        <v>106061</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>106067</v>
+        <v>106062</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>106068</v>
+        <v>106063</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>106069</v>
+        <v>106064</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>106070</v>
+        <v>106065</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>106071</v>
+        <v>106066</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>106072</v>
+        <v>106067</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>106073</v>
+        <v>106068</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>106074</v>
+        <v>106069</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>106075</v>
+        <v>106070</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>106076</v>
+        <v>106071</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>106077</v>
+        <v>106072</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>106078</v>
+        <v>106073</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>106079</v>
+        <v>106074</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>106080</v>
+        <v>106075</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>106081</v>
+        <v>106076</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>106082</v>
+        <v>106077</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>106083</v>
+        <v>106078</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>106084</v>
+        <v>106079</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>106085</v>
+        <v>106080</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>106086</v>
+        <v>106081</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>106087</v>
+        <v>106082</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>106088</v>
+        <v>106083</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>106089</v>
+        <v>106084</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
+        <v>106085</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>106086</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>106087</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>106088</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>106089</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
         <v>106090</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
         <v>214</v>
       </c>
-      <c r="C103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s">
-        <v>22</v>
-      </c>
-      <c r="I103" t="s">
-        <v>215</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I103">
-    <sortCondition ref="H2:H103" customList="hero,skin,particle,gameplay,other"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
+    <sortCondition ref="H2:H108" customList="hero,skin,particle,gameplay,other"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
